--- a/public/plugin/xls/Surat Belum Pernah Menikah baru.xlsx
+++ b/public/plugin/xls/Surat Belum Pernah Menikah baru.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20407"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa offline\public\plugin\xls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\apps desa\public\plugin\xls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12164184-D06E-4B70-A587-DD527C043252}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3518541-FCBD-499A-97A9-005A484323BE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" xr2:uid="{97369360-FDE9-49F9-B1DC-3B9160B04ED4}"/>
   </bookViews>
@@ -54,16 +54,7 @@
     <t>:</t>
   </si>
   <si>
-    <t xml:space="preserve">Ciaruteun Ilir, </t>
-  </si>
-  <si>
     <t xml:space="preserve">No :  </t>
-  </si>
-  <si>
-    <t>DESA CIARUTEUN ILIR</t>
-  </si>
-  <si>
-    <t>Jl. Ciaruteun Ilir Rt 001 Rw 003 Desa Ciaruteun Ilir Cibungbulang Bogor</t>
   </si>
   <si>
     <t>Tempat Lahir</t>
@@ -100,14 +91,23 @@
     <t xml:space="preserve">           Demikian Surat ini  kami buat dan untuk dipergunakan sebagai mana mestinya,</t>
   </si>
   <si>
+    <t xml:space="preserve">Cimanggu I, </t>
+  </si>
+  <si>
     <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Jl. Gardu Seri Ciaruteun Rt.004 Rw.008 Desa Cimanggu Satu Kecamatan Cibungbulang 16630 Bogor</t>
+  </si>
+  <si>
+    <t>DESA CIMANGGU I</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +157,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -193,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -234,20 +249,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -623,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C28E0B9-CBCF-4415-8AE6-496673EECDF9}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -641,75 +659,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="C3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+      <c r="C4" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
+      <c r="A7" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
+      <c r="C8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H9" s="3"/>
@@ -719,7 +737,7 @@
     </row>
     <row r="11" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -757,7 +775,7 @@
     </row>
     <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>7</v>
@@ -770,7 +788,7 @@
     </row>
     <row r="16" spans="1:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>7</v>
@@ -783,14 +801,14 @@
     </row>
     <row r="17" spans="2:9" s="6" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E17" s="8"/>
       <c r="F17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -837,7 +855,7 @@
     </row>
     <row r="22" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -849,7 +867,7 @@
     </row>
     <row r="24" spans="2:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -862,7 +880,7 @@
     <row r="25" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:9" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G26" s="10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="H26" s="10"/>
       <c r="I26" s="5"/>
@@ -887,15 +905,15 @@
       <c r="H30" s="12"/>
       <c r="I30" s="12"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G31" s="12"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="12"/>
+    <row r="31" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="12"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
     </row>
     <row r="33" spans="7:9" ht="15" x14ac:dyDescent="0.25">
       <c r="G33" s="13"/>
@@ -908,9 +926,9 @@
     <mergeCell ref="F8:I8"/>
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="C2:I2"/>
+    <mergeCell ref="A7:I7"/>
+    <mergeCell ref="C4:I4"/>
     <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="A7:I7"/>
     <mergeCell ref="G32:I32"/>
     <mergeCell ref="G33:I33"/>
     <mergeCell ref="G27:I27"/>
